--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_17_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2801408.722231231</v>
+        <v>-2802149.185051954</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406075</v>
+        <v>1462975.848406071</v>
       </c>
     </row>
     <row r="8">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.556290738295</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.9664405879704</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395492</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>101.4971894112021</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H11" t="n">
         <v>202.6210018711096</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642681</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874615</v>
+        <v>65.87283976874613</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247073</v>
+        <v>89.1834140824707</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>244.8030337782983</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.7661934734459</v>
+        <v>34.81658261715472</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560312</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>25.92847942268835</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067126</v>
       </c>
       <c r="G12" t="n">
-        <v>5.3585266371151</v>
+        <v>5.358526637115071</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>166.6979539789397</v>
+        <v>34.98135294622706</v>
       </c>
       <c r="T12" t="n">
-        <v>199.0829306929842</v>
+        <v>183.3159405165626</v>
       </c>
       <c r="U12" t="n">
-        <v>94.2071238447502</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167127</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>119.978382128207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076489</v>
+        <v>74.05638417076486</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459177</v>
+        <v>73.96609474459174</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922471</v>
+        <v>48.11537914922468</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591524</v>
+        <v>35.53022006591522</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549977</v>
+        <v>16.89887198549974</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385658</v>
+        <v>14.71736161385655</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021866</v>
+        <v>13.70444699021863</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028132</v>
+        <v>36.04936959028129</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304858</v>
+        <v>28.51003926304855</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892998</v>
+        <v>16.96724755892995</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437367</v>
+        <v>35.45957938437364</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529494</v>
+        <v>88.37870840529492</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494636</v>
+        <v>95.26758743494634</v>
       </c>
       <c r="U13" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V13" t="n">
         <v>120.4210422911154</v>
@@ -1591,10 +1591,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632456</v>
+        <v>93.99305435632454</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.8680523193822</v>
+        <v>86.86805231938217</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879704</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
         <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
-        <v>48.4648650523304</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>283.0845181045931</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711096</v>
+        <v>144.956314689071</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642684</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874618</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247076</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715478</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560312</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>15.72846453192614</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268833</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067126</v>
       </c>
       <c r="G15" t="n">
-        <v>121.3081374934058</v>
+        <v>5.358526637115071</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622712</v>
+        <v>34.98135294622706</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027165</v>
+        <v>67.36632966027159</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9237248774628</v>
+        <v>94.20712384475017</v>
       </c>
       <c r="V15" t="n">
         <v>101.0839861167127</v>
       </c>
       <c r="W15" t="n">
-        <v>119.978382128207</v>
+        <v>226.0676559839926</v>
       </c>
       <c r="X15" t="n">
-        <v>74.05638417076491</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.9660947445918</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922474</v>
+        <v>48.11537914922468</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591527</v>
+        <v>35.53022006591522</v>
       </c>
       <c r="D16" t="n">
-        <v>16.8988719854998</v>
+        <v>16.89887198549974</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385661</v>
+        <v>14.71736161385655</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021868</v>
+        <v>13.70444699021863</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028134</v>
+        <v>36.04936959028129</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304861</v>
+        <v>28.51003926304855</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755893</v>
+        <v>16.96724755892995</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.4595793843737</v>
+        <v>35.45957938437364</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529497</v>
+        <v>88.37870840529492</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494639</v>
+        <v>95.26758743494634</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V16" t="n">
         <v>120.4210422911154</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632459</v>
+        <v>93.99305435632454</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938223</v>
+        <v>86.86805231938217</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373625</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448895</v>
       </c>
       <c r="D17" t="n">
-        <v>117.3035523945651</v>
+        <v>117.3035523945649</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461437</v>
       </c>
       <c r="F17" t="n">
-        <v>169.4965565155935</v>
+        <v>169.4965565155934</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111876</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149211</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401687</v>
       </c>
       <c r="W17" t="n">
-        <v>111.8614794912951</v>
+        <v>111.861479491295</v>
       </c>
       <c r="X17" t="n">
-        <v>132.3516114523511</v>
+        <v>132.351611452351</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299355</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>22.63278435065606</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1938,10 +1938,10 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>28.77361569339231</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.9818218891245</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>77.45106251930778</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>180.4328844084326</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662022</v>
       </c>
       <c r="V19" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409770996</v>
       </c>
       <c r="W19" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047296</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>145.3543524373625</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448895</v>
+        <v>127.8934025448912</v>
       </c>
       <c r="D20" t="n">
         <v>117.3035523945649</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461453</v>
+        <v>144.5508808461437</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155934</v>
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2169,16 +2169,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>65.21232279568636</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.4522236397676</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>166.6979539789397</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.1122544509815</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.32062995745123</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.6009042264953735</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2409,10 +2409,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>32.82617254577122</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>23.79712696322996</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>35.01183638550137</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>49.5281711531157</v>
+        <v>48.92726692662022</v>
       </c>
       <c r="V25" t="n">
         <v>14.75815409770996</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.6897813850286</v>
+        <v>232.6897813850285</v>
       </c>
       <c r="C26" t="n">
         <v>215.2288314925555</v>
@@ -2561,19 +2561,19 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8863097938098</v>
+        <v>231.8863097938097</v>
       </c>
       <c r="F26" t="n">
-        <v>256.8319854632595</v>
+        <v>256.8319854632593</v>
       </c>
       <c r="G26" t="n">
-        <v>264.7570588588537</v>
+        <v>264.7570588588536</v>
       </c>
       <c r="H26" t="n">
-        <v>184.2935426253702</v>
+        <v>184.2935426253701</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09318678068739</v>
+        <v>41.09318678068735</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300673</v>
+        <v>47.54538052300668</v>
       </c>
       <c r="T26" t="n">
-        <v>70.85595483673131</v>
+        <v>70.85595483673126</v>
       </c>
       <c r="U26" t="n">
         <v>101.2614631591581</v>
       </c>
       <c r="V26" t="n">
-        <v>177.7081981916829</v>
+        <v>177.7081981916828</v>
       </c>
       <c r="W26" t="n">
-        <v>199.196908438961</v>
+        <v>199.1969084389609</v>
       </c>
       <c r="X26" t="n">
         <v>219.687040400017</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.1938783776016</v>
+        <v>236.1938783776015</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2637,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>81.40647475309905</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>16.65389370048767</v>
+        <v>16.65389370048761</v>
       </c>
       <c r="T27" t="n">
-        <v>49.0388704145322</v>
+        <v>49.03887041453214</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9237248774628</v>
+        <v>159.885134065923</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.78791990348529</v>
+        <v>29.78791990348523</v>
       </c>
       <c r="C28" t="n">
-        <v>17.20276082017583</v>
+        <v>17.20276082017577</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.7219103445419</v>
+        <v>17.72191034454184</v>
       </c>
       <c r="H28" t="n">
-        <v>10.18258001730916</v>
+        <v>10.1825800173091</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863425</v>
+        <v>17.13212013863419</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955552</v>
+        <v>70.05124915955547</v>
       </c>
       <c r="T28" t="n">
-        <v>76.94012818920694</v>
+        <v>76.94012818920689</v>
       </c>
       <c r="U28" t="n">
         <v>136.2626958742862</v>
       </c>
       <c r="V28" t="n">
-        <v>102.093583045376</v>
+        <v>102.0935830453759</v>
       </c>
       <c r="W28" t="n">
-        <v>136.478938058139</v>
+        <v>136.4789380581389</v>
       </c>
       <c r="X28" t="n">
-        <v>75.66559511058514</v>
+        <v>75.66559511058509</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.54059307364278</v>
+        <v>68.54059307364273</v>
       </c>
     </row>
     <row r="29">
@@ -2801,16 +2801,16 @@
         <v>231.8863097938097</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632594</v>
+        <v>256.8319854632593</v>
       </c>
       <c r="G29" t="n">
-        <v>264.7570588588537</v>
+        <v>264.7570588588536</v>
       </c>
       <c r="H29" t="n">
-        <v>184.2935426253702</v>
+        <v>184.2935426253701</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068736</v>
+        <v>41.09318678068732</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.5453805230067</v>
+        <v>47.54538052300666</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673129</v>
+        <v>70.85595483673126</v>
       </c>
       <c r="U29" t="n">
         <v>101.2614631591581</v>
       </c>
       <c r="V29" t="n">
-        <v>177.7081981916829</v>
+        <v>177.7081981916828</v>
       </c>
       <c r="W29" t="n">
-        <v>199.196908438961</v>
+        <v>199.1969084389609</v>
       </c>
       <c r="X29" t="n">
         <v>219.687040400017</v>
@@ -2874,22 +2874,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>79.03062158184412</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.65113859050539</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048764</v>
+        <v>16.65389370048761</v>
       </c>
       <c r="T30" t="n">
-        <v>49.03887041453217</v>
+        <v>49.03887041453214</v>
       </c>
       <c r="U30" t="n">
         <v>225.9237248774628</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.63863549885232</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348526</v>
+        <v>29.78791990348523</v>
       </c>
       <c r="C31" t="n">
-        <v>17.2027608201758</v>
+        <v>17.20276082017577</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454187</v>
+        <v>17.72191034454184</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730913</v>
+        <v>10.1825800173091</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863422</v>
+        <v>17.13212013863419</v>
       </c>
       <c r="S31" t="n">
-        <v>70.0512491595555</v>
+        <v>70.05124915955547</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920692</v>
+        <v>76.94012818920689</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742862</v>
       </c>
       <c r="V31" t="n">
-        <v>102.093583045376</v>
+        <v>102.0935830453759</v>
       </c>
       <c r="W31" t="n">
-        <v>136.478938058139</v>
+        <v>136.4789380581389</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058512</v>
+        <v>75.66559511058509</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364275</v>
+        <v>68.54059307364273</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.0931867806874</v>
+        <v>41.09318678068743</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300674</v>
+        <v>47.54538052300677</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673134</v>
+        <v>70.85595483673137</v>
       </c>
       <c r="U32" t="n">
         <v>101.2614631591582</v>
       </c>
       <c r="V32" t="n">
-        <v>177.7081981916829</v>
+        <v>177.708198191683</v>
       </c>
       <c r="W32" t="n">
-        <v>199.196908438961</v>
+        <v>199.1969084389611</v>
       </c>
       <c r="X32" t="n">
         <v>219.6870404000171</v>
@@ -3114,13 +3114,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948992</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>84.00546946691217</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>16.6538937004877</v>
+        <v>16.65389370048772</v>
       </c>
       <c r="T33" t="n">
-        <v>49.03887041453223</v>
+        <v>49.03887041453225</v>
       </c>
       <c r="U33" t="n">
-        <v>159.885134065923</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348532</v>
+        <v>29.78791990348535</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017585</v>
+        <v>17.20276082017588</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454193</v>
+        <v>17.72191034454196</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730919</v>
+        <v>10.18258001730922</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863428</v>
+        <v>17.13212013863431</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955555</v>
+        <v>70.05124915955558</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920697</v>
+        <v>76.940128189207</v>
       </c>
       <c r="U34" t="n">
         <v>136.2626958742863</v>
       </c>
       <c r="V34" t="n">
-        <v>102.093583045376</v>
+        <v>102.0935830453761</v>
       </c>
       <c r="W34" t="n">
-        <v>136.478938058139</v>
+        <v>136.4789380581391</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058517</v>
+        <v>75.6655951105852</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364281</v>
+        <v>68.54059307364284</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>169.4965565155935</v>
       </c>
       <c r="G35" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H35" t="n">
         <v>96.95811367770423</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149219</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V35" t="n">
         <v>90.37276924401695</v>
@@ -3348,22 +3348,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>71.37721974830177</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>15.23217334976535</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>14.31549393480165</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745123</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>113.1122544509813</v>
+        <v>180.4328844084325</v>
       </c>
       <c r="U37" t="n">
         <v>48.92726692662031</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373625</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448895</v>
       </c>
       <c r="D38" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945649</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461437</v>
       </c>
       <c r="F38" t="n">
-        <v>169.4965565155935</v>
+        <v>169.4965565155934</v>
       </c>
       <c r="G38" t="n">
         <v>177.4216299111877</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770415</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149219</v>
+        <v>13.92603421149209</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401687</v>
       </c>
       <c r="W38" t="n">
-        <v>111.8614794912951</v>
+        <v>111.861479491295</v>
       </c>
       <c r="X38" t="n">
-        <v>132.3516114523511</v>
+        <v>132.351611452351</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299355</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>75.23489561484881</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>76.40917943116511</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3712,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>180.4328844084325</v>
+        <v>180.4328844084328</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662031</v>
+        <v>48.92726692662022</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409771005</v>
+        <v>14.75815409770996</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047305</v>
+        <v>49.14350911047296</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>161.8338265482973</v>
+        <v>161.8338265482986</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558256</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054996</v>
+        <v>133.783026505501</v>
       </c>
       <c r="E41" t="n">
-        <v>161.0303549570785</v>
+        <v>161.0303549570798</v>
       </c>
       <c r="F41" t="n">
-        <v>185.9760306265281</v>
+        <v>185.9760306265295</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9011040221224</v>
+        <v>193.9011040221237</v>
       </c>
       <c r="H41" t="n">
-        <v>113.4375877886389</v>
+        <v>113.4375877886402</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242816</v>
       </c>
       <c r="V41" t="n">
-        <v>106.8522433549516</v>
+        <v>106.8522433549529</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3409536022297</v>
+        <v>128.340953602231</v>
       </c>
       <c r="X41" t="n">
-        <v>148.8310855632857</v>
+        <v>148.831085563287</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.3379235408703</v>
+        <v>165.3379235408716</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>161.4587281333354</v>
+        <v>33.65885120667789</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>120.1006484492992</v>
+        <v>42.64958592998457</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475625</v>
+        <v>6.08417335247696</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755494</v>
+        <v>65.40674103755627</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864602</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140768</v>
+        <v>65.62298322140902</v>
       </c>
       <c r="X43" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273855166</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>161.8338265482973</v>
+        <v>161.8338265482986</v>
       </c>
       <c r="C44" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558256</v>
       </c>
       <c r="D44" t="n">
-        <v>133.7830265054996</v>
+        <v>133.783026505501</v>
       </c>
       <c r="E44" t="n">
-        <v>161.0303549570785</v>
+        <v>161.0303549570798</v>
       </c>
       <c r="F44" t="n">
-        <v>185.9760306265281</v>
+        <v>185.9760306265295</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9011040221224</v>
+        <v>193.9011040221237</v>
       </c>
       <c r="H44" t="n">
-        <v>113.4375877886389</v>
+        <v>113.4375877886402</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242815</v>
       </c>
       <c r="V44" t="n">
-        <v>106.8522433549516</v>
+        <v>106.8522433549529</v>
       </c>
       <c r="W44" t="n">
-        <v>128.3409536022297</v>
+        <v>128.340953602231</v>
       </c>
       <c r="X44" t="n">
-        <v>148.8310855632857</v>
+        <v>148.831085563287</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.3379235408703</v>
+        <v>165.3379235408716</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>5.02370976227946</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
-        <v>216.5271065321652</v>
+        <v>11.90057203424328</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>140.4691877723248</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>120.1006484492923</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.084173352475625</v>
+        <v>6.08417335247696</v>
       </c>
       <c r="U46" t="n">
-        <v>65.40674103755494</v>
+        <v>65.40674103755627</v>
       </c>
       <c r="V46" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864602</v>
       </c>
       <c r="W46" t="n">
-        <v>65.62298322140768</v>
+        <v>65.62298322140902</v>
       </c>
       <c r="X46" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273855166</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.1006484492992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1111.5201067452</v>
+        <v>798.9843764524203</v>
       </c>
       <c r="C11" t="n">
-        <v>875.6046615550028</v>
+        <v>798.9843764524203</v>
       </c>
       <c r="D11" t="n">
-        <v>650.386034698467</v>
+        <v>798.9843764524203</v>
       </c>
       <c r="E11" t="n">
-        <v>397.6448538504376</v>
+        <v>798.9843764524203</v>
       </c>
       <c r="F11" t="n">
-        <v>295.1224403037688</v>
+        <v>521.0455434130275</v>
       </c>
       <c r="G11" t="n">
-        <v>295.1224403037688</v>
+        <v>235.1015857316204</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608235</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I11" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5060,10 +5060,10 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q11" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R11" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S11" t="n">
         <v>1455.157131708067</v>
@@ -5072,19 +5072,19 @@
         <v>1365.072875059107</v>
       </c>
       <c r="U11" t="n">
-        <v>1365.072875059107</v>
+        <v>1244.275983741027</v>
       </c>
       <c r="V11" t="n">
-        <v>1365.072875059107</v>
+        <v>1046.260168147671</v>
       </c>
       <c r="W11" t="n">
-        <v>1365.072875059107</v>
+        <v>1046.260168147671</v>
       </c>
       <c r="X11" t="n">
-        <v>1365.072875059107</v>
+        <v>1046.260168147671</v>
       </c>
       <c r="Y11" t="n">
-        <v>1365.072875059107</v>
+        <v>798.9843764524203</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.9589404134712</v>
+        <v>398.9118686632564</v>
       </c>
       <c r="C12" t="n">
-        <v>357.5059111323442</v>
+        <v>357.5059111323441</v>
       </c>
       <c r="D12" t="n">
         <v>208.5715014710929</v>
       </c>
       <c r="E12" t="n">
-        <v>182.3811182158522</v>
+        <v>49.33404646563736</v>
       </c>
       <c r="F12" t="n">
-        <v>35.84656024273713</v>
+        <v>35.84656024273709</v>
       </c>
       <c r="G12" t="n">
         <v>30.43390707393399</v>
@@ -5118,52 +5118,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J12" t="n">
-        <v>54.7981338372213</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K12" t="n">
-        <v>54.7981338372213</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="L12" t="n">
-        <v>342.4531504565509</v>
+        <v>342.4531504565508</v>
       </c>
       <c r="M12" t="n">
-        <v>719.0727504964841</v>
+        <v>496.410980281168</v>
       </c>
       <c r="N12" t="n">
-        <v>1095.692350536417</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O12" t="n">
-        <v>1407.663885668929</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P12" t="n">
         <v>1418.383708616427</v>
       </c>
       <c r="Q12" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R12" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S12" t="n">
-        <v>1353.313582000801</v>
+        <v>1486.360653751015</v>
       </c>
       <c r="T12" t="n">
-        <v>1152.219712613948</v>
+        <v>1301.193037067619</v>
       </c>
       <c r="U12" t="n">
-        <v>1057.061001659655</v>
+        <v>1072.987254363111</v>
       </c>
       <c r="V12" t="n">
-        <v>954.9559651781273</v>
+        <v>837.8351461313684</v>
       </c>
       <c r="W12" t="n">
-        <v>833.7656802001404</v>
+        <v>583.5977894031668</v>
       </c>
       <c r="X12" t="n">
-        <v>758.9612517448223</v>
+        <v>508.7933609478487</v>
       </c>
       <c r="Y12" t="n">
-        <v>684.2480247300832</v>
+        <v>434.0801339331096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858028</v>
+        <v>194.4516414858026</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081107</v>
+        <v>158.5625303081105</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459897</v>
+        <v>141.4929626459895</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138113</v>
+        <v>126.6269408138112</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661157</v>
+        <v>112.7840650661156</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946789</v>
+        <v>76.37056042946783</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184306</v>
+        <v>47.57254097184303</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220476</v>
+        <v>84.15679020220477</v>
       </c>
       <c r="K13" t="n">
-        <v>87.99049804774795</v>
+        <v>218.3899330701334</v>
       </c>
       <c r="L13" t="n">
-        <v>278.822193815976</v>
+        <v>409.2216288383615</v>
       </c>
       <c r="M13" t="n">
         <v>483.3280976611676</v>
       </c>
       <c r="N13" t="n">
-        <v>691.506531735708</v>
+        <v>676.5957735341119</v>
       </c>
       <c r="O13" t="n">
-        <v>877.7311657640603</v>
+        <v>862.8204075624643</v>
       </c>
       <c r="P13" t="n">
-        <v>1032.37802040831</v>
+        <v>1017.467262206714</v>
       </c>
       <c r="Q13" t="n">
         <v>1081.219273571223</v>
@@ -5224,25 +5224,25 @@
         <v>1045.40151661731</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856991</v>
+        <v>956.1300939856987</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877734</v>
+        <v>859.9002076877731</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493637</v>
+        <v>703.7485358493634</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936916</v>
+        <v>582.1111193936913</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069458</v>
+        <v>425.7410211069455</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591432</v>
+        <v>330.7985419591429</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658278</v>
+        <v>243.0530345658276</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1107.98061483351</v>
+        <v>940.7581923478565</v>
       </c>
       <c r="C14" t="n">
-        <v>1107.98061483351</v>
+        <v>940.7581923478565</v>
       </c>
       <c r="D14" t="n">
-        <v>882.761987976974</v>
+        <v>715.5395654913207</v>
       </c>
       <c r="E14" t="n">
-        <v>630.0208071289444</v>
+        <v>462.7983846432912</v>
       </c>
       <c r="F14" t="n">
-        <v>581.0663979851763</v>
+        <v>462.7983846432912</v>
       </c>
       <c r="G14" t="n">
-        <v>295.1224403037688</v>
+        <v>176.8544269618845</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608232</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I14" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K14" t="n">
         <v>226.9372683326556</v>
@@ -5285,7 +5285,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5297,31 +5297,31 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R14" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S14" t="n">
-        <v>1455.157131708067</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T14" t="n">
-        <v>1365.072875059107</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U14" t="n">
-        <v>1365.072875059107</v>
+        <v>1400.898462378621</v>
       </c>
       <c r="V14" t="n">
-        <v>1365.072875059107</v>
+        <v>1400.898462378621</v>
       </c>
       <c r="W14" t="n">
-        <v>1365.072875059107</v>
+        <v>1181.176878858722</v>
       </c>
       <c r="X14" t="n">
-        <v>1365.072875059107</v>
+        <v>940.7581923478565</v>
       </c>
       <c r="Y14" t="n">
-        <v>1107.98061483351</v>
+        <v>940.7581923478565</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>782.1268312104442</v>
+        <v>324.5342872244893</v>
       </c>
       <c r="C15" t="n">
-        <v>607.6738019293172</v>
+        <v>283.1283296935771</v>
       </c>
       <c r="D15" t="n">
-        <v>458.7393922680659</v>
+        <v>267.2409917825406</v>
       </c>
       <c r="E15" t="n">
-        <v>299.5019372626104</v>
+        <v>241.0506085272998</v>
       </c>
       <c r="F15" t="n">
-        <v>152.9673792894954</v>
+        <v>227.5631223043995</v>
       </c>
       <c r="G15" t="n">
-        <v>30.43390707393399</v>
+        <v>222.1504691355964</v>
       </c>
       <c r="H15" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I15" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722129</v>
       </c>
       <c r="K15" t="n">
-        <v>30.43390707393399</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L15" t="n">
-        <v>318.0889236932636</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="M15" t="n">
-        <v>496.4109802811681</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N15" t="n">
-        <v>873.0305803211013</v>
+        <v>1106.412173483915</v>
       </c>
       <c r="O15" t="n">
-        <v>1185.002115453613</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="P15" t="n">
         <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1486.360653751016</v>
+        <v>1402.023135948102</v>
       </c>
       <c r="T15" t="n">
-        <v>1418.313856114378</v>
+        <v>1333.976338311464</v>
       </c>
       <c r="U15" t="n">
-        <v>1190.10807340987</v>
+        <v>1238.817627357171</v>
       </c>
       <c r="V15" t="n">
-        <v>1088.003036928342</v>
+        <v>1136.712590875643</v>
       </c>
       <c r="W15" t="n">
-        <v>966.8127519503548</v>
+        <v>908.3614232150442</v>
       </c>
       <c r="X15" t="n">
-        <v>892.0083234950367</v>
+        <v>700.5099230095113</v>
       </c>
       <c r="Y15" t="n">
-        <v>817.2950964802975</v>
+        <v>492.7496242445574</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.451641485803</v>
+        <v>194.4516414858026</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081108</v>
+        <v>158.5625303081105</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459898</v>
+        <v>141.4929626459895</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138114</v>
+        <v>126.6269408138112</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661158</v>
+        <v>112.7840650661156</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946796</v>
+        <v>76.37056042946783</v>
       </c>
       <c r="H16" t="n">
-        <v>47.5725409718431</v>
+        <v>47.57254097184303</v>
       </c>
       <c r="I16" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220473</v>
+        <v>84.15679020220477</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701333</v>
+        <v>218.3899330701334</v>
       </c>
       <c r="L16" t="n">
-        <v>409.2216288383614</v>
+        <v>409.2216288383615</v>
       </c>
       <c r="M16" t="n">
-        <v>613.7275326835529</v>
+        <v>613.7275326835531</v>
       </c>
       <c r="N16" t="n">
-        <v>821.9059667580932</v>
+        <v>691.5065317357081</v>
       </c>
       <c r="O16" t="n">
-        <v>1008.130600786445</v>
+        <v>877.7311657640605</v>
       </c>
       <c r="P16" t="n">
         <v>1032.37802040831</v>
@@ -5458,28 +5458,28 @@
         <v>1081.219273571223</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.401516617311</v>
+        <v>1045.40151661731</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856995</v>
+        <v>956.1300939856987</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877739</v>
+        <v>859.9002076877731</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493641</v>
+        <v>703.7485358493634</v>
       </c>
       <c r="V16" t="n">
-        <v>582.111119393692</v>
+        <v>582.1111193936913</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069461</v>
+        <v>425.7410211069455</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591434</v>
+        <v>330.7985419591429</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.053034565828</v>
+        <v>243.0530345658276</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>872.4784887810895</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230545</v>
+        <v>624.8047969230548</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693738</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243304</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372715</v>
       </c>
       <c r="H17" t="n">
         <v>30.43390707393399</v>
@@ -5513,16 +5513,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N17" t="n">
         <v>1084.019791121359</v>
@@ -5534,22 +5534,22 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U17" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472969</v>
       </c>
       <c r="V17" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973962</v>
       </c>
       <c r="W17" t="n">
         <v>1303.351633548412</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>908.8039594299911</v>
+        <v>578.4927298510904</v>
       </c>
       <c r="C18" t="n">
-        <v>734.3509301488641</v>
+        <v>578.4927298510904</v>
       </c>
       <c r="D18" t="n">
-        <v>585.4165204876128</v>
+        <v>555.6313315170944</v>
       </c>
       <c r="E18" t="n">
-        <v>426.1790654821574</v>
+        <v>396.3938765116388</v>
       </c>
       <c r="F18" t="n">
-        <v>279.6445075090423</v>
+        <v>249.8593185385238</v>
       </c>
       <c r="G18" t="n">
-        <v>141.1847825900245</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H18" t="n">
-        <v>30.43390707393399</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I18" t="n">
         <v>30.43390707393399</v>
@@ -5598,13 +5598,13 @@
         <v>30.43390707393399</v>
       </c>
       <c r="L18" t="n">
-        <v>119.7913802412349</v>
+        <v>119.7913802412348</v>
       </c>
       <c r="M18" t="n">
-        <v>496.4109802811681</v>
+        <v>496.410980281168</v>
       </c>
       <c r="N18" t="n">
-        <v>873.0305803211013</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O18" t="n">
         <v>1185.002115453613</v>
@@ -5613,31 +5613,31 @@
         <v>1418.383708616427</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R18" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S18" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197887</v>
       </c>
       <c r="T18" t="n">
-        <v>1521.6953536967</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U18" t="n">
-        <v>1521.6953536967</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="V18" t="n">
-        <v>1521.6953536967</v>
+        <v>832.730086579292</v>
       </c>
       <c r="W18" t="n">
-        <v>1492.631095420546</v>
+        <v>578.4927298510904</v>
       </c>
       <c r="X18" t="n">
-        <v>1284.779595215013</v>
+        <v>578.4927298510904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1077.019296450059</v>
+        <v>578.4927298510904</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I19" t="n">
-        <v>108.6673035580833</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J19" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947717</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531979</v>
+        <v>94.69987566531977</v>
       </c>
       <c r="M19" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N19" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O19" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P19" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R19" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="S19" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717149</v>
       </c>
       <c r="T19" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717149</v>
       </c>
       <c r="U19" t="n">
-        <v>277.2364804240507</v>
+        <v>94.98104162765412</v>
       </c>
       <c r="V19" t="n">
-        <v>262.3292540627273</v>
+        <v>80.07381526633093</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>872.4784887810902</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852424</v>
+        <v>743.2932336852409</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230556</v>
+        <v>624.8047969230541</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693735</v>
+        <v>478.7938061693736</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243297</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G20" t="n">
         <v>128.3713956372715</v>
@@ -5750,16 +5750,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020939</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326554</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241021</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5771,16 +5771,16 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T20" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U20" t="n">
         <v>1507.62865247297</v>
@@ -5789,7 +5789,7 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X20" t="n">
         <v>1169.663137131896</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>419.5714582862128</v>
+        <v>863.9241170408566</v>
       </c>
       <c r="C21" t="n">
-        <v>419.5714582862128</v>
+        <v>689.4710877597296</v>
       </c>
       <c r="D21" t="n">
-        <v>270.6370486249615</v>
+        <v>540.5366780984783</v>
       </c>
       <c r="E21" t="n">
-        <v>111.399593619506</v>
+        <v>381.2992230930228</v>
       </c>
       <c r="F21" t="n">
-        <v>111.399593619506</v>
+        <v>234.7646651199078</v>
       </c>
       <c r="G21" t="n">
-        <v>111.399593619506</v>
+        <v>96.30494020088992</v>
       </c>
       <c r="H21" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I21" t="n">
         <v>30.43390707393399</v>
@@ -5835,13 +5835,13 @@
         <v>30.43390707393399</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7913802412349</v>
+        <v>119.7913802412348</v>
       </c>
       <c r="M21" t="n">
-        <v>496.4109802811681</v>
+        <v>496.410980281168</v>
       </c>
       <c r="N21" t="n">
-        <v>873.0305803211013</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O21" t="n">
         <v>1185.002115453613</v>
@@ -5850,31 +5850,31 @@
         <v>1418.383708616427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R21" t="n">
-        <v>1473.763814666631</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S21" t="n">
-        <v>1305.382042970733</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T21" t="n">
-        <v>1305.382042970733</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="U21" t="n">
-        <v>1077.176260266225</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="V21" t="n">
-        <v>842.0241520344823</v>
+        <v>1118.161473769058</v>
       </c>
       <c r="W21" t="n">
-        <v>587.7867953062807</v>
+        <v>863.9241170408566</v>
       </c>
       <c r="X21" t="n">
-        <v>587.7867953062807</v>
+        <v>863.9241170408566</v>
       </c>
       <c r="Y21" t="n">
-        <v>587.7867953062807</v>
+        <v>863.9241170408566</v>
       </c>
     </row>
     <row r="22">
@@ -5911,49 +5911,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947717</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531979</v>
+        <v>94.69987566531977</v>
       </c>
       <c r="M22" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N22" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O22" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P22" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q22" t="n">
-        <v>258.6573258474539</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R22" t="n">
-        <v>258.6573258474539</v>
+        <v>326.0509882019546</v>
       </c>
       <c r="S22" t="n">
-        <v>258.6573258474539</v>
+        <v>326.0509882019546</v>
       </c>
       <c r="T22" t="n">
-        <v>258.6573258474539</v>
+        <v>326.0509882019546</v>
       </c>
       <c r="U22" t="n">
-        <v>209.235844103393</v>
+        <v>276.6295064578938</v>
       </c>
       <c r="V22" t="n">
-        <v>194.3286177420699</v>
+        <v>261.7222800965706</v>
       </c>
       <c r="W22" t="n">
-        <v>144.6887095496729</v>
+        <v>212.0823719041737</v>
       </c>
       <c r="X22" t="n">
-        <v>144.6887095496729</v>
+        <v>212.0823719041737</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6887095496729</v>
+        <v>212.0823719041737</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810904</v>
+        <v>872.4784887810889</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852424</v>
+        <v>743.2932336852409</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230556</v>
+        <v>624.8047969230541</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693751</v>
+        <v>478.7938061693736</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243313</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G23" t="n">
         <v>128.3713956372715</v>
@@ -5987,13 +5987,13 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020953</v>
       </c>
       <c r="K23" t="n">
         <v>226.9372683326556</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M23" t="n">
         <v>789.5552979241022</v>
@@ -6008,31 +6008,31 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696698</v>
       </c>
       <c r="T23" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696698</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472968</v>
       </c>
       <c r="V23" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973962</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548411</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131895</v>
       </c>
       <c r="Y23" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000647</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>659.5933589948828</v>
+        <v>734.3509301488641</v>
       </c>
       <c r="C24" t="n">
-        <v>485.1403297137558</v>
+        <v>734.3509301488641</v>
       </c>
       <c r="D24" t="n">
-        <v>336.2059200525046</v>
+        <v>585.4165204876128</v>
       </c>
       <c r="E24" t="n">
-        <v>176.968465047049</v>
+        <v>426.1790654821574</v>
       </c>
       <c r="F24" t="n">
-        <v>30.43390707393399</v>
+        <v>279.6445075090423</v>
       </c>
       <c r="G24" t="n">
-        <v>30.43390707393399</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H24" t="n">
         <v>30.43390707393399</v>
@@ -6066,52 +6066,52 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J24" t="n">
-        <v>54.7981338372213</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K24" t="n">
-        <v>223.0613211674321</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="L24" t="n">
-        <v>510.7163377867617</v>
+        <v>223.1030253215075</v>
       </c>
       <c r="M24" t="n">
-        <v>887.3359378266948</v>
+        <v>599.7226253614406</v>
       </c>
       <c r="N24" t="n">
-        <v>887.3359378266948</v>
+        <v>976.3422254013738</v>
       </c>
       <c r="O24" t="n">
-        <v>1199.307472959206</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P24" t="n">
-        <v>1418.383708616427</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R24" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S24" t="n">
-        <v>1521.6953536967</v>
+        <v>1404.200085847552</v>
       </c>
       <c r="T24" t="n">
-        <v>1521.6953536967</v>
+        <v>1404.200085847552</v>
       </c>
       <c r="U24" t="n">
-        <v>1521.6953536967</v>
+        <v>1404.200085847552</v>
       </c>
       <c r="V24" t="n">
-        <v>1497.657851713639</v>
+        <v>1404.200085847552</v>
       </c>
       <c r="W24" t="n">
-        <v>1243.420494985437</v>
+        <v>1149.962729119351</v>
       </c>
       <c r="X24" t="n">
-        <v>1035.568994779905</v>
+        <v>942.111228913818</v>
       </c>
       <c r="Y24" t="n">
-        <v>827.8086960149508</v>
+        <v>734.3509301488641</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="C25" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="D25" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="E25" t="n">
-        <v>30.43390707393399</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="F25" t="n">
         <v>30.43390707393399</v>
@@ -6148,49 +6148,49 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947717</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531979</v>
+        <v>94.69987566531977</v>
       </c>
       <c r="M25" t="n">
-        <v>168.8063444881259</v>
+        <v>168.8063444881258</v>
       </c>
       <c r="N25" t="n">
-        <v>246.5853435402808</v>
+        <v>246.5853435402807</v>
       </c>
       <c r="O25" t="n">
-        <v>302.4105425462477</v>
+        <v>302.4105425462476</v>
       </c>
       <c r="P25" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.6579621681117</v>
+        <v>326.6579621681116</v>
       </c>
       <c r="R25" t="n">
-        <v>326.6579621681117</v>
+        <v>291.2924708696253</v>
       </c>
       <c r="S25" t="n">
-        <v>326.6579621681117</v>
+        <v>291.2924708696253</v>
       </c>
       <c r="T25" t="n">
-        <v>326.6579621681117</v>
+        <v>291.2924708696253</v>
       </c>
       <c r="U25" t="n">
-        <v>276.6295064578938</v>
+        <v>241.8709891255645</v>
       </c>
       <c r="V25" t="n">
-        <v>261.7222800965706</v>
+        <v>226.9637627642413</v>
       </c>
       <c r="W25" t="n">
-        <v>212.0823719041737</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="X25" t="n">
-        <v>212.0823719041737</v>
+        <v>177.3238545718444</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0823719041737</v>
+        <v>177.3238545718444</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607516</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.781708514025</v>
+        <v>1250.781708514023</v>
       </c>
       <c r="D26" t="n">
-        <v>1044.075666754196</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028728</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601864</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754859</v>
+        <v>282.9894504754844</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450592</v>
+        <v>96.83435691450491</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906314</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210062</v>
@@ -6230,13 +6230,13 @@
         <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
-        <v>955.90371004716</v>
+        <v>955.9037100471601</v>
       </c>
       <c r="M26" t="n">
-        <v>1408.621956991903</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864827</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O26" t="n">
         <v>2233.040522606064</v>
@@ -6245,31 +6245,31 @@
         <v>2542.656213831069</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.93649146717</v>
+        <v>2734.936491467167</v>
       </c>
       <c r="R26" t="n">
-        <v>2766.304371953159</v>
+        <v>2766.304371953157</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061231</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508977</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287608</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790958</v>
+        <v>2364.919526790956</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367765</v>
+        <v>2163.710528367763</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.804426953607</v>
+        <v>1941.804426953605</v>
       </c>
       <c r="Y26" t="n">
-        <v>1703.224751824716</v>
+        <v>1703.224751824714</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>535.5511296987607</v>
+        <v>684.4855393600119</v>
       </c>
       <c r="C27" t="n">
-        <v>361.0981004176337</v>
+        <v>510.0325100788849</v>
       </c>
       <c r="D27" t="n">
-        <v>361.0981004176337</v>
+        <v>361.0981004176336</v>
       </c>
       <c r="E27" t="n">
         <v>201.8606454121782</v>
       </c>
       <c r="F27" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906314</v>
       </c>
       <c r="G27" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906314</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906314</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906314</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235049</v>
+        <v>79.69031420235044</v>
       </c>
       <c r="K27" t="n">
-        <v>247.9535015325613</v>
+        <v>247.9535015325612</v>
       </c>
       <c r="L27" t="n">
         <v>535.6085181518908</v>
@@ -6327,28 +6327,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1903.329840742676</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="S27" t="n">
-        <v>1886.507725893699</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T27" t="n">
-        <v>1836.973513353767</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U27" t="n">
-        <v>1608.76773064926</v>
+        <v>1757.702140310511</v>
       </c>
       <c r="V27" t="n">
-        <v>1373.615622417517</v>
+        <v>1522.550032078768</v>
       </c>
       <c r="W27" t="n">
-        <v>1119.378265689315</v>
+        <v>1268.312675350567</v>
       </c>
       <c r="X27" t="n">
-        <v>911.5267654837826</v>
+        <v>1060.461175145034</v>
       </c>
       <c r="Y27" t="n">
-        <v>703.7664667188287</v>
+        <v>852.70087638008</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.31497076534453</v>
+        <v>100.8889674209083</v>
       </c>
       <c r="C28" t="n">
-        <v>79.93844468435884</v>
+        <v>83.51244133992269</v>
       </c>
       <c r="D28" t="n">
-        <v>79.93844468435884</v>
+        <v>83.51244133992269</v>
       </c>
       <c r="E28" t="n">
-        <v>83.51244133992284</v>
+        <v>83.51244133992269</v>
       </c>
       <c r="F28" t="n">
-        <v>83.51244133992284</v>
+        <v>83.51244133992269</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998153</v>
+        <v>65.61152179998143</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906314</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906319</v>
+        <v>55.32608743906314</v>
       </c>
       <c r="J28" t="n">
         <v>127.193155220616</v>
       </c>
       <c r="K28" t="n">
-        <v>131.0268630661591</v>
+        <v>149.6695510182091</v>
       </c>
       <c r="L28" t="n">
-        <v>191.4591238120017</v>
+        <v>210.1018117640517</v>
       </c>
       <c r="M28" t="n">
-        <v>265.5655926348078</v>
+        <v>284.2082805868578</v>
       </c>
       <c r="N28" t="n">
-        <v>491.8882113626302</v>
+        <v>361.9872796390127</v>
       </c>
       <c r="O28" t="n">
-        <v>696.2570300442645</v>
+        <v>566.3560983206471</v>
       </c>
       <c r="P28" t="n">
-        <v>817.4693369804065</v>
+        <v>739.1471376181787</v>
       </c>
       <c r="Q28" t="n">
-        <v>817.4693369804065</v>
+        <v>821.0433336359696</v>
       </c>
       <c r="R28" t="n">
-        <v>800.1641651232002</v>
+        <v>803.7381617787634</v>
       </c>
       <c r="S28" t="n">
-        <v>729.4053275882956</v>
+        <v>732.9793242438589</v>
       </c>
       <c r="T28" t="n">
-        <v>651.6880263870764</v>
+        <v>655.2620230426397</v>
       </c>
       <c r="U28" t="n">
-        <v>514.0489396453731</v>
+        <v>517.6229363009365</v>
       </c>
       <c r="V28" t="n">
-        <v>410.9241082864074</v>
+        <v>414.498104941971</v>
       </c>
       <c r="W28" t="n">
-        <v>273.066595096368</v>
+        <v>276.6405917519317</v>
       </c>
       <c r="X28" t="n">
-        <v>196.6367010452719</v>
+        <v>200.2106977008356</v>
       </c>
       <c r="Y28" t="n">
-        <v>127.403778748663</v>
+        <v>130.9777754042267</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C29" t="n">
         <v>1250.781708514024</v>
@@ -6449,28 +6449,28 @@
         <v>809.8470710028721</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601857</v>
+        <v>550.4208230601859</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754851</v>
+        <v>282.9894504754852</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450495</v>
+        <v>96.83435691450492</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J29" t="n">
         <v>234.1884011210059</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491194</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471601</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N29" t="n">
         <v>1851.630069864826</v>
@@ -6485,7 +6485,7 @@
         <v>2734.936491467169</v>
       </c>
       <c r="R29" t="n">
-        <v>2766.304371953158</v>
+        <v>2766.304371953159</v>
       </c>
       <c r="S29" t="n">
         <v>2718.278735061233</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>727.2676917604232</v>
+        <v>617.7798920756284</v>
       </c>
       <c r="C30" t="n">
-        <v>552.8146624792962</v>
+        <v>443.3268627945014</v>
       </c>
       <c r="D30" t="n">
-        <v>552.8146624792962</v>
+        <v>294.3924531332501</v>
       </c>
       <c r="E30" t="n">
-        <v>393.5772074738406</v>
+        <v>135.1549981277946</v>
       </c>
       <c r="F30" t="n">
-        <v>247.0426495007256</v>
+        <v>135.1549981277946</v>
       </c>
       <c r="G30" t="n">
-        <v>247.0426495007256</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J30" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235048</v>
       </c>
       <c r="K30" t="n">
         <v>247.9535015325613</v>
@@ -6564,28 +6564,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1943.486745957417</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="S30" t="n">
-        <v>1926.66463110844</v>
+        <v>1968.736488270567</v>
       </c>
       <c r="T30" t="n">
-        <v>1877.130418568509</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U30" t="n">
-        <v>1648.924635864001</v>
+        <v>1690.996493026127</v>
       </c>
       <c r="V30" t="n">
-        <v>1413.772527632258</v>
+        <v>1455.844384794385</v>
       </c>
       <c r="W30" t="n">
-        <v>1159.535170904056</v>
+        <v>1201.607028066183</v>
       </c>
       <c r="X30" t="n">
-        <v>951.6836706985238</v>
+        <v>993.7555278606503</v>
       </c>
       <c r="Y30" t="n">
-        <v>895.4830287804912</v>
+        <v>785.9952290956965</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.73818863237881</v>
+        <v>100.8889674209083</v>
       </c>
       <c r="C31" t="n">
-        <v>75.36166255139315</v>
+        <v>83.51244133992272</v>
       </c>
       <c r="D31" t="n">
-        <v>75.36166255139315</v>
+        <v>83.51244133992272</v>
       </c>
       <c r="E31" t="n">
-        <v>78.93565920695718</v>
+        <v>83.51244133992272</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992277</v>
+        <v>83.51244133992272</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998149</v>
+        <v>65.61152179998146</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900454</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J31" t="n">
-        <v>56.67269700900454</v>
+        <v>127.193155220616</v>
       </c>
       <c r="K31" t="n">
-        <v>141.5187722296801</v>
+        <v>231.565747036</v>
       </c>
       <c r="L31" t="n">
-        <v>201.9510329755227</v>
+        <v>440.5416274575102</v>
       </c>
       <c r="M31" t="n">
-        <v>276.0575017983288</v>
+        <v>663.1917159559838</v>
       </c>
       <c r="N31" t="n">
-        <v>502.3801205261512</v>
+        <v>740.9707150081388</v>
       </c>
       <c r="O31" t="n">
-        <v>558.2053195321181</v>
+        <v>796.7959140141056</v>
       </c>
       <c r="P31" t="n">
-        <v>730.9963588296496</v>
+        <v>821.0433336359696</v>
       </c>
       <c r="Q31" t="n">
-        <v>812.8925548474404</v>
+        <v>821.0433336359696</v>
       </c>
       <c r="R31" t="n">
-        <v>795.5873829902341</v>
+        <v>803.7381617787634</v>
       </c>
       <c r="S31" t="n">
-        <v>724.8285454553296</v>
+        <v>732.9793242438589</v>
       </c>
       <c r="T31" t="n">
-        <v>647.1112442541105</v>
+        <v>655.2620230426397</v>
       </c>
       <c r="U31" t="n">
-        <v>509.4721575124072</v>
+        <v>517.6229363009365</v>
       </c>
       <c r="V31" t="n">
-        <v>406.3473261534415</v>
+        <v>414.498104941971</v>
       </c>
       <c r="W31" t="n">
-        <v>268.4898129634022</v>
+        <v>276.6405917519317</v>
       </c>
       <c r="X31" t="n">
-        <v>192.0599189123061</v>
+        <v>200.2106977008356</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.8269966156973</v>
+        <v>130.9777754042267</v>
       </c>
     </row>
     <row r="32">
@@ -6683,46 +6683,46 @@
         <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028714</v>
+        <v>809.8470710028715</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601851</v>
+        <v>550.4208230601853</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754843</v>
+        <v>282.9894504754845</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450498</v>
+        <v>96.83435691450504</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210061</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491196</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471598</v>
+        <v>955.9037100471596</v>
       </c>
       <c r="M32" t="n">
         <v>1408.621956991901</v>
       </c>
       <c r="N32" t="n">
-        <v>1851.630069864826</v>
+        <v>1851.630069864825</v>
       </c>
       <c r="O32" t="n">
-        <v>2233.040522606063</v>
+        <v>2233.040522606064</v>
       </c>
       <c r="P32" t="n">
-        <v>2542.656213831068</v>
+        <v>2542.656213831069</v>
       </c>
       <c r="Q32" t="n">
         <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
-        <v>2766.304371953158</v>
+        <v>2766.304371953159</v>
       </c>
       <c r="S32" t="n">
         <v>2718.278735061233</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>684.485539360012</v>
+        <v>617.7798920756284</v>
       </c>
       <c r="C33" t="n">
-        <v>510.032510078885</v>
+        <v>443.3268627945014</v>
       </c>
       <c r="D33" t="n">
-        <v>361.0981004176337</v>
+        <v>294.3924531332501</v>
       </c>
       <c r="E33" t="n">
-        <v>201.8606454121782</v>
+        <v>286.7146549747158</v>
       </c>
       <c r="F33" t="n">
-        <v>55.32608743906317</v>
+        <v>140.1800970016007</v>
       </c>
       <c r="G33" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="H33" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J33" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235048</v>
       </c>
       <c r="K33" t="n">
         <v>247.9535015325613</v>
@@ -6810,19 +6810,19 @@
         <v>1919.202275730635</v>
       </c>
       <c r="U33" t="n">
-        <v>1757.702140310511</v>
+        <v>1690.996493026127</v>
       </c>
       <c r="V33" t="n">
-        <v>1522.550032078768</v>
+        <v>1455.844384794385</v>
       </c>
       <c r="W33" t="n">
-        <v>1268.312675350567</v>
+        <v>1201.607028066183</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.461175145034</v>
+        <v>993.7555278606503</v>
       </c>
       <c r="Y33" t="n">
-        <v>852.70087638008</v>
+        <v>785.9952290956965</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8889674209086</v>
+        <v>100.8889674209087</v>
       </c>
       <c r="C34" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992294</v>
       </c>
       <c r="D34" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992294</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992294</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992289</v>
+        <v>83.51244133992294</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998155</v>
+        <v>65.61152179998157</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I34" t="n">
-        <v>56.67269700900449</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J34" t="n">
-        <v>128.5397647905572</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="K34" t="n">
-        <v>132.3734726361004</v>
+        <v>59.15979528460636</v>
       </c>
       <c r="L34" t="n">
-        <v>192.805733381943</v>
+        <v>268.1356757061164</v>
       </c>
       <c r="M34" t="n">
-        <v>266.9122022047491</v>
+        <v>490.78576420459</v>
       </c>
       <c r="N34" t="n">
-        <v>493.2348209325714</v>
+        <v>568.5647632567449</v>
       </c>
       <c r="O34" t="n">
-        <v>697.6036396142058</v>
+        <v>772.9335819383791</v>
       </c>
       <c r="P34" t="n">
-        <v>739.1471376181798</v>
+        <v>821.043333635971</v>
       </c>
       <c r="Q34" t="n">
-        <v>821.0433336359706</v>
+        <v>821.043333635971</v>
       </c>
       <c r="R34" t="n">
-        <v>803.7381617787643</v>
+        <v>803.7381617787646</v>
       </c>
       <c r="S34" t="n">
-        <v>732.9793242438597</v>
+        <v>732.97932424386</v>
       </c>
       <c r="T34" t="n">
-        <v>655.2620230426405</v>
+        <v>655.2620230426407</v>
       </c>
       <c r="U34" t="n">
-        <v>517.6229363009372</v>
+        <v>517.6229363009375</v>
       </c>
       <c r="V34" t="n">
-        <v>414.4981049419715</v>
+        <v>414.4981049419717</v>
       </c>
       <c r="W34" t="n">
-        <v>276.6405917519321</v>
+        <v>276.6405917519323</v>
       </c>
       <c r="X34" t="n">
-        <v>200.210697700836</v>
+        <v>200.2106977008361</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.9777754042271</v>
+        <v>130.9777754042272</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>872.4784887810897</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852417</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230548</v>
       </c>
       <c r="E35" t="n">
         <v>478.7938061693742</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243303</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G35" t="n">
         <v>128.3713956372716</v>
@@ -6935,16 +6935,16 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J35" t="n">
-        <v>60.7526010802095</v>
+        <v>60.75260108020939</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241021</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>923.4081228225066</v>
+        <v>204.886936355061</v>
       </c>
       <c r="C36" t="n">
-        <v>748.9550935413796</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D36" t="n">
-        <v>600.0206838801283</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E36" t="n">
-        <v>440.7832288746728</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F36" t="n">
-        <v>294.2486709015578</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G36" t="n">
-        <v>222.1504691355964</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I36" t="n">
         <v>30.43390707393399</v>
@@ -7023,16 +7023,16 @@
         <v>510.7163377867616</v>
       </c>
       <c r="M36" t="n">
-        <v>887.3359378266948</v>
+        <v>510.7163377867616</v>
       </c>
       <c r="N36" t="n">
-        <v>1263.955537866628</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O36" t="n">
-        <v>1521.695353696699</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.695353696699</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q36" t="n">
         <v>1521.695353696699</v>
@@ -7044,22 +7044,22 @@
         <v>1521.695353696699</v>
       </c>
       <c r="T36" t="n">
-        <v>1521.695353696699</v>
+        <v>1506.309320010068</v>
       </c>
       <c r="U36" t="n">
-        <v>1521.695353696699</v>
+        <v>1278.10353730556</v>
       </c>
       <c r="V36" t="n">
-        <v>1521.695353696699</v>
+        <v>1042.951429073817</v>
       </c>
       <c r="W36" t="n">
-        <v>1507.235258813061</v>
+        <v>788.7140723456157</v>
       </c>
       <c r="X36" t="n">
-        <v>1299.383758607529</v>
+        <v>580.8625721400829</v>
       </c>
       <c r="Y36" t="n">
-        <v>1091.623459842575</v>
+        <v>373.102273375129</v>
       </c>
     </row>
     <row r="37">
@@ -7114,13 +7114,13 @@
         <v>326.6579621681117</v>
       </c>
       <c r="Q37" t="n">
-        <v>258.6573258474539</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R37" t="n">
-        <v>258.6573258474539</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S37" t="n">
-        <v>258.6573258474539</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T37" t="n">
         <v>144.4025233717152</v>
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810907</v>
+        <v>872.4784887810903</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852426</v>
+        <v>743.2932336852423</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230557</v>
+        <v>624.8047969230555</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693751</v>
+        <v>478.793806169375</v>
       </c>
       <c r="F38" t="n">
         <v>307.5851632243312</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372715</v>
       </c>
       <c r="H38" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393395</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020956</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M38" t="n">
         <v>789.5552979241022</v>
@@ -7193,31 +7193,31 @@
         <v>1477.958695736266</v>
       </c>
       <c r="Q38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
         <v>1303.351633548413</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111.399593619506</v>
+        <v>659.5933589948828</v>
       </c>
       <c r="C39" t="n">
-        <v>111.399593619506</v>
+        <v>485.1403297137558</v>
       </c>
       <c r="D39" t="n">
-        <v>111.399593619506</v>
+        <v>336.2059200525046</v>
       </c>
       <c r="E39" t="n">
-        <v>111.399593619506</v>
+        <v>176.968465047049</v>
       </c>
       <c r="F39" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G39" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H39" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I39" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J39" t="n">
-        <v>30.43390707393401</v>
+        <v>40.4927763316276</v>
       </c>
       <c r="K39" t="n">
-        <v>30.43390707393401</v>
+        <v>208.7559636618384</v>
       </c>
       <c r="L39" t="n">
-        <v>318.0889236932636</v>
+        <v>496.410980281168</v>
       </c>
       <c r="M39" t="n">
-        <v>694.7085237331969</v>
+        <v>496.410980281168</v>
       </c>
       <c r="N39" t="n">
-        <v>1071.32812377313</v>
+        <v>873.0305803211011</v>
       </c>
       <c r="O39" t="n">
         <v>1185.002115453613</v>
       </c>
       <c r="P39" t="n">
-        <v>1418.383708616428</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q39" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R39" t="n">
-        <v>1445.700509641297</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S39" t="n">
-        <v>1445.700509641297</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T39" t="n">
-        <v>1244.606640254445</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="U39" t="n">
-        <v>1016.400857549937</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="V39" t="n">
-        <v>781.2487493181943</v>
+        <v>1320.601484309847</v>
       </c>
       <c r="W39" t="n">
-        <v>527.0113925899927</v>
+        <v>1243.420494985437</v>
       </c>
       <c r="X39" t="n">
-        <v>319.1598923844599</v>
+        <v>1035.568994779905</v>
       </c>
       <c r="Y39" t="n">
-        <v>111.399593619506</v>
+        <v>827.8086960149508</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947717</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531978</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881259</v>
@@ -7360,22 +7360,22 @@
         <v>326.6579621681117</v>
       </c>
       <c r="T40" t="n">
-        <v>144.4025233717152</v>
+        <v>144.4025233717149</v>
       </c>
       <c r="U40" t="n">
-        <v>94.98104162765431</v>
+        <v>94.98104162765412</v>
       </c>
       <c r="V40" t="n">
-        <v>80.07381526633102</v>
+        <v>80.07381526633093</v>
       </c>
       <c r="W40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.43390707393401</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829039</v>
+        <v>976.4306445829128</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416673</v>
+        <v>830.5994560416748</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340918</v>
+        <v>695.465085834098</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350227</v>
+        <v>532.8081616350274</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445902</v>
+        <v>344.9535852445936</v>
       </c>
       <c r="G41" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121447</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="I41" t="n">
-        <v>34.51046220341689</v>
+        <v>63.9756025788994</v>
       </c>
       <c r="J41" t="n">
-        <v>64.82915620969243</v>
+        <v>94.29429658517495</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0138234621385</v>
+        <v>260.478963837621</v>
       </c>
       <c r="L41" t="n">
-        <v>489.4572257845111</v>
+        <v>518.9223661599937</v>
       </c>
       <c r="M41" t="n">
-        <v>793.6318530535851</v>
+        <v>823.0969934290677</v>
       </c>
       <c r="N41" t="n">
-        <v>1088.096346250842</v>
+        <v>1163.254803250584</v>
       </c>
       <c r="O41" t="n">
-        <v>1320.963179316412</v>
+        <v>1396.121636316154</v>
       </c>
       <c r="P41" t="n">
-        <v>1482.035250865749</v>
+        <v>1557.193707865491</v>
       </c>
       <c r="Q41" t="n">
-        <v>1624.00783439649</v>
+        <v>1600.930365825925</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.523110170844</v>
+        <v>1702.445641600277</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170863</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170862</v>
       </c>
       <c r="U41" t="n">
-        <v>1694.810475501727</v>
+        <v>1694.810475501742</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.878916557331</v>
+        <v>1586.878916557345</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686392</v>
+        <v>1457.241589686405</v>
       </c>
       <c r="X41" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824499</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.899156247851</v>
+        <v>1139.899156247861</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>489.2168848432387</v>
+        <v>708.8519182129135</v>
       </c>
       <c r="C42" t="n">
-        <v>489.2168848432387</v>
+        <v>534.3988889317865</v>
       </c>
       <c r="D42" t="n">
-        <v>340.2824751819874</v>
+        <v>385.4644792705352</v>
       </c>
       <c r="E42" t="n">
-        <v>181.0450201765319</v>
+        <v>226.2270242650797</v>
       </c>
       <c r="F42" t="n">
-        <v>34.51046220341689</v>
+        <v>226.2270242650797</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51046220341689</v>
+        <v>226.2270242650797</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51046220341689</v>
+        <v>115.4761487489892</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51046220341689</v>
+        <v>58.87468896670453</v>
       </c>
       <c r="K42" t="n">
-        <v>91.22965366413376</v>
+        <v>227.1378762969153</v>
       </c>
       <c r="L42" t="n">
-        <v>378.8846702834633</v>
+        <v>514.7928929162449</v>
       </c>
       <c r="M42" t="n">
-        <v>766.5437285079259</v>
+        <v>902.4519511407075</v>
       </c>
       <c r="N42" t="n">
-        <v>1180.169981875518</v>
+        <v>1316.0782045083</v>
       </c>
       <c r="O42" t="n">
-        <v>1492.14151700803</v>
+        <v>1388.829871927775</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090589</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170862</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367948</v>
       </c>
       <c r="S42" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367948</v>
       </c>
       <c r="T42" t="n">
-        <v>1725.523110170844</v>
+        <v>1440.091722981095</v>
       </c>
       <c r="U42" t="n">
-        <v>1562.433485793738</v>
+        <v>1406.092883378391</v>
       </c>
       <c r="V42" t="n">
-        <v>1327.281377561995</v>
+        <v>1170.940775146648</v>
       </c>
       <c r="W42" t="n">
-        <v>1073.044020833793</v>
+        <v>916.7034184184463</v>
       </c>
       <c r="X42" t="n">
-        <v>865.1925206282606</v>
+        <v>708.8519182129135</v>
       </c>
       <c r="Y42" t="n">
-        <v>657.4322218633067</v>
+        <v>708.8519182129135</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51046220341689</v>
+        <v>112.7438586875665</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51046220341689</v>
+        <v>112.7438586875665</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51046220341689</v>
+        <v>112.7438586875665</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51046220341689</v>
+        <v>112.7438586875665</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51046220341689</v>
+        <v>112.7438586875665</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51046220341689</v>
+        <v>112.7438586875665</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51046220341689</v>
+        <v>112.7438586875665</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51046220341689</v>
+        <v>112.7438586875665</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896007</v>
+        <v>38.34417004896041</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480268</v>
+        <v>98.77643079480302</v>
       </c>
       <c r="M43" t="n">
-        <v>172.8828996176088</v>
+        <v>172.8828996176091</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697637</v>
+        <v>250.661898669764</v>
       </c>
       <c r="O43" t="n">
-        <v>306.4870976757306</v>
+        <v>306.4870976757309</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975948</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975948</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975948</v>
       </c>
       <c r="S43" t="n">
-        <v>209.4207309851712</v>
+        <v>287.6541274693276</v>
       </c>
       <c r="T43" t="n">
-        <v>203.2751013362059</v>
+        <v>281.508497820361</v>
       </c>
       <c r="U43" t="n">
-        <v>137.2076861467565</v>
+        <v>215.4410826309102</v>
       </c>
       <c r="V43" t="n">
-        <v>105.6545263400447</v>
+        <v>183.887922824197</v>
       </c>
       <c r="W43" t="n">
-        <v>39.36868470225914</v>
+        <v>117.6020811864101</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51046220341689</v>
+        <v>112.7438586875665</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51046220341689</v>
+        <v>112.7438586875665</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829033</v>
+        <v>976.4306445829119</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416666</v>
+        <v>830.5994560416739</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340913</v>
+        <v>695.4650858340972</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350222</v>
+        <v>532.8081616350267</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445897</v>
+        <v>344.9535852445929</v>
       </c>
       <c r="G44" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121447</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="I44" t="n">
-        <v>63.97560257890038</v>
+        <v>63.9756025788994</v>
       </c>
       <c r="J44" t="n">
-        <v>94.29429658517593</v>
+        <v>94.29429658517495</v>
       </c>
       <c r="K44" t="n">
-        <v>260.478963837622</v>
+        <v>260.478963837621</v>
       </c>
       <c r="L44" t="n">
-        <v>518.9223661599947</v>
+        <v>518.9223661599937</v>
       </c>
       <c r="M44" t="n">
-        <v>823.0969934290687</v>
+        <v>868.790310053326</v>
       </c>
       <c r="N44" t="n">
-        <v>1163.254803250562</v>
+        <v>1163.254803250583</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.121636316132</v>
+        <v>1396.121636316153</v>
       </c>
       <c r="P44" t="n">
-        <v>1557.19370786547</v>
+        <v>1557.19370786549</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.930365825903</v>
+        <v>1600.930365825923</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.445641600257</v>
+        <v>1702.445641600276</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170862</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.52311017086</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501726</v>
+        <v>1694.810475501741</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.87891655733</v>
+        <v>1586.878916557344</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686404</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824498</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.89915624786</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>663.6699141243657</v>
+        <v>883.0953255889559</v>
       </c>
       <c r="C45" t="n">
-        <v>489.2168848432387</v>
+        <v>708.6422963078289</v>
       </c>
       <c r="D45" t="n">
-        <v>340.2824751819874</v>
+        <v>559.7078866465777</v>
       </c>
       <c r="E45" t="n">
-        <v>181.0450201765319</v>
+        <v>400.4704316411221</v>
       </c>
       <c r="F45" t="n">
-        <v>34.51046220341689</v>
+        <v>253.9358736680071</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51046220341689</v>
+        <v>115.4761487489892</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51046220341689</v>
+        <v>115.4761487489892</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="J45" t="n">
-        <v>58.87468896670418</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="K45" t="n">
-        <v>91.22965366413376</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="L45" t="n">
-        <v>378.8846702834633</v>
+        <v>322.1654788227468</v>
       </c>
       <c r="M45" t="n">
-        <v>766.5437285079259</v>
+        <v>709.8245370472093</v>
       </c>
       <c r="N45" t="n">
-        <v>1180.169981875518</v>
+        <v>1123.450790414802</v>
       </c>
       <c r="O45" t="n">
-        <v>1492.14151700803</v>
+        <v>1388.829871927775</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.523110170844</v>
+        <v>1622.211465090589</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.523110170844</v>
+        <v>1725.523110170862</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367948</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367948</v>
       </c>
       <c r="T45" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367948</v>
       </c>
       <c r="U45" t="n">
-        <v>1720.448655865511</v>
+        <v>1412.97980966344</v>
       </c>
       <c r="V45" t="n">
-        <v>1501.734406843122</v>
+        <v>1400.959029830871</v>
       </c>
       <c r="W45" t="n">
-        <v>1247.497050114921</v>
+        <v>1259.070961373978</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.645549909388</v>
+        <v>1259.070961373978</v>
       </c>
       <c r="Y45" t="n">
-        <v>831.8852511444338</v>
+        <v>1051.310662609024</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341723</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896007</v>
+        <v>38.34417004896041</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480268</v>
+        <v>98.77643079480302</v>
       </c>
       <c r="M46" t="n">
-        <v>172.8828996176088</v>
+        <v>172.8828996176091</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697637</v>
+        <v>250.661898669764</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757306</v>
+        <v>306.4870976757309</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975948</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975948</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975948</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975948</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486293</v>
+        <v>324.5888876486282</v>
       </c>
       <c r="U46" t="n">
-        <v>258.5214724591799</v>
+        <v>258.5214724591774</v>
       </c>
       <c r="V46" t="n">
-        <v>226.9683126524681</v>
+        <v>226.9683126524642</v>
       </c>
       <c r="W46" t="n">
-        <v>160.6824710146826</v>
+        <v>160.6824710146774</v>
       </c>
       <c r="X46" t="n">
-        <v>155.8242485158403</v>
+        <v>155.8242485158337</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341689</v>
+        <v>155.8242485158337</v>
       </c>
     </row>
   </sheetData>
@@ -8705,7 +8705,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>94.50242152751716</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868388</v>
+        <v>229.6432168814691</v>
       </c>
       <c r="N12" t="n">
         <v>441.9619164368269</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>93.55188963456742</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,10 +8927,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>254.2535469453958</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>441.9619164368269</v>
+        <v>282.8272049391373</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719551</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,13 +9243,13 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K18" t="n">
-        <v>94.50242152751716</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L18" t="n">
-        <v>170.5397963620161</v>
+        <v>170.539796362016</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N18" t="n">
         <v>441.9619164368269</v>
@@ -9480,13 +9480,13 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K21" t="n">
-        <v>94.50242152751716</v>
+        <v>94.50242152751719</v>
       </c>
       <c r="L21" t="n">
-        <v>170.5397963620161</v>
+        <v>170.539796362016</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N21" t="n">
         <v>441.9619164368269</v>
@@ -9653,10 +9653,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>274.8949934127965</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N24" t="n">
-        <v>61.53807801265201</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>304.012912573681</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868388</v>
+        <v>74.13025746266391</v>
       </c>
       <c r="N36" t="n">
-        <v>441.9619164368269</v>
+        <v>427.5120603705706</v>
       </c>
       <c r="O36" t="n">
-        <v>339.0828048298203</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>82.72378564719551</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,22 +10899,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4807052764823</v>
+        <v>111.6411792741526</v>
       </c>
       <c r="K39" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.554095886839</v>
+        <v>74.13025746266391</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368271</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O39" t="n">
-        <v>193.5617703352867</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>151.7945341140999</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>152.2260892635609</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
-        <v>127.1842040501733</v>
+        <v>94.50242152751717</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>346.7992348125492</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.2137690395492</v>
       </c>
       <c r="F11" t="n">
-        <v>173.6622552977968</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.42064602642679</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.5889224048976</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374223</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>217.5243676847004</v>
@@ -23324,7 +23324,7 @@
         <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>9.718303845042641</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>251.017240630768</v>
       </c>
       <c r="C14" t="n">
-        <v>233.556290738295</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>226.6945796566685</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>57.6646871820386</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.42064602642679</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>65.87283976874613</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.1834140824707</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048976</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>196.0356574374223</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847005</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457565</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="15">
@@ -23969,13 +23969,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.630351915392534e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.488243368240514e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>143373.3592754817</v>
       </c>
       <c r="D2" t="n">
-        <v>143373.3592754817</v>
+        <v>143373.3592754818</v>
       </c>
       <c r="E2" t="n">
         <v>123032.0381205443</v>
@@ -26326,34 +26326,34 @@
         <v>123032.0381205444</v>
       </c>
       <c r="G2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="H2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="I2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="J2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="K2" t="n">
+        <v>143682.3097262494</v>
+      </c>
+      <c r="L2" t="n">
         <v>143682.3097262496</v>
       </c>
-      <c r="J2" t="n">
-        <v>143682.3097262493</v>
-      </c>
-      <c r="K2" t="n">
-        <v>143682.3097262493</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>143682.3097262495</v>
       </c>
-      <c r="M2" t="n">
-        <v>143682.3097262494</v>
-      </c>
       <c r="N2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319206.1449189903</v>
+        <v>319206.1449189902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472427</v>
+        <v>84530.31055472433</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13686837721616e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>116916.0581612105</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472423</v>
+        <v>84530.31055472424</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239533</v>
+        <v>87131.0989423952</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510433</v>
+        <v>34584.19673510436</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>310803.6100166999</v>
       </c>
       <c r="F4" t="n">
-        <v>310803.6100166998</v>
+        <v>310803.6100166999</v>
       </c>
       <c r="G4" t="n">
+        <v>377919.8023185458</v>
+      </c>
+      <c r="H4" t="n">
+        <v>377919.8023185459</v>
+      </c>
+      <c r="I4" t="n">
         <v>377919.8023185457</v>
       </c>
-      <c r="H4" t="n">
-        <v>377919.8023185458</v>
-      </c>
-      <c r="I4" t="n">
-        <v>377919.8023185458</v>
-      </c>
       <c r="J4" t="n">
-        <v>376828.4269773418</v>
+        <v>376828.4269773416</v>
       </c>
       <c r="K4" t="n">
         <v>376828.4269773418</v>
       </c>
       <c r="L4" t="n">
-        <v>376828.4269773417</v>
+        <v>376828.4269773418</v>
       </c>
       <c r="M4" t="n">
-        <v>377919.8023185457</v>
+        <v>377919.8023185458</v>
       </c>
       <c r="N4" t="n">
-        <v>377919.8023185457</v>
+        <v>377919.8023185458</v>
       </c>
       <c r="O4" t="n">
         <v>376989.2813831306</v>
       </c>
       <c r="P4" t="n">
-        <v>376989.2813831306</v>
+        <v>376989.2813831305</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>36923.20336678313</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="H5" t="n">
         <v>45806.17671431453</v>
@@ -26491,13 +26491,13 @@
         <v>45806.17671431453</v>
       </c>
       <c r="J5" t="n">
-        <v>57382.03161561138</v>
+        <v>57382.03161561135</v>
       </c>
       <c r="K5" t="n">
+        <v>57382.03161561137</v>
+      </c>
+      <c r="L5" t="n">
         <v>57382.03161561136</v>
-      </c>
-      <c r="L5" t="n">
-        <v>57382.03161561135</v>
       </c>
       <c r="M5" t="n">
         <v>45806.17671431452</v>
@@ -26506,10 +26506,10 @@
         <v>45806.17671431453</v>
       </c>
       <c r="O5" t="n">
-        <v>47518.94570368935</v>
+        <v>47518.9457036895</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368935</v>
+        <v>47518.9457036895</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-326528.1204437664</v>
+        <v>-326532.5340216346</v>
       </c>
       <c r="C6" t="n">
-        <v>-326528.1204437664</v>
+        <v>-326532.5340216346</v>
       </c>
       <c r="D6" t="n">
-        <v>-326528.1204437665</v>
+        <v>-326532.5340216345</v>
       </c>
       <c r="E6" t="n">
-        <v>-543900.9201819289</v>
+        <v>-544195.9240620104</v>
       </c>
       <c r="F6" t="n">
-        <v>-224694.7752629386</v>
+        <v>-224989.7791430201</v>
       </c>
       <c r="G6" t="n">
-        <v>-364573.9798613351</v>
+        <v>-364573.979861335</v>
       </c>
       <c r="H6" t="n">
         <v>-280043.6693066108</v>
@@ -26543,22 +26543,22 @@
         <v>-280043.6693066107</v>
       </c>
       <c r="J6" t="n">
-        <v>-407444.2070279144</v>
+        <v>-407444.2070279139</v>
       </c>
       <c r="K6" t="n">
-        <v>-290528.1488667038</v>
+        <v>-290528.1488667039</v>
       </c>
       <c r="L6" t="n">
         <v>-375058.4594214277</v>
       </c>
       <c r="M6" t="n">
-        <v>-367174.7682490061</v>
+        <v>-367174.768249006</v>
       </c>
       <c r="N6" t="n">
-        <v>-280043.6693066108</v>
+        <v>-280043.6693066107</v>
       </c>
       <c r="O6" t="n">
-        <v>-315410.1140956747</v>
+        <v>-315410.1140956748</v>
       </c>
       <c r="P6" t="n">
         <v>-280825.9173605703</v>
@@ -26698,7 +26698,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="G2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H2" t="n">
         <v>237.379489226118</v>
@@ -26707,10 +26707,10 @@
         <v>237.379489226118</v>
       </c>
       <c r="J2" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="K2" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="L2" t="n">
         <v>150.044060278452</v>
@@ -26722,10 +26722,10 @@
         <v>237.379489226118</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="P2" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="G4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="H4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="I4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882898</v>
+        <v>691.5760929882892</v>
       </c>
       <c r="K4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882897</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882897</v>
       </c>
       <c r="M4" t="n">
         <v>380.4238384241748</v>
       </c>
       <c r="N4" t="n">
-        <v>380.4238384241751</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O4" t="n">
-        <v>431.380777542711</v>
+        <v>431.3807775427154</v>
       </c>
       <c r="P4" t="n">
-        <v>431.380777542711</v>
+        <v>431.3807775427154</v>
       </c>
     </row>
   </sheetData>
@@ -26920,16 +26920,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934054</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504656</v>
+        <v>44.38117208504664</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766612</v>
+        <v>87.335428947666</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411193</v>
+        <v>27.90169797411056</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641149</v>
+        <v>311.1522545641144</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006016</v>
+        <v>69.27158386005999</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853596</v>
+        <v>50.95693911854056</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934054</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504656</v>
+        <v>44.38117208504664</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,19 +28166,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.76699017642142</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>131.7166010327126</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>131.7166010327126</v>
@@ -28217,19 +28217,19 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>15.76699017642164</v>
       </c>
       <c r="U12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>131.7166010327126</v>
@@ -28272,16 +28272,16 @@
         <v>131.7166010327126</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="L13" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="M13" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119085</v>
       </c>
       <c r="O13" t="n">
         <v>131.7166010327126</v>
@@ -28290,7 +28290,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="Q13" t="n">
-        <v>116.6552291119089</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R13" t="n">
         <v>131.7166010327126</v>
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>131.7166010327126</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G15" t="n">
-        <v>15.76699017642193</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>131.7166010327126</v>
@@ -28460,19 +28460,19 @@
         <v>131.7166010327126</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="V15" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="W15" t="n">
-        <v>131.7166010327126</v>
+        <v>25.62732717692705</v>
       </c>
       <c r="X15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28518,16 +28518,16 @@
         <v>131.7166010327126</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.6552291119096</v>
+        <v>116.6552291119084</v>
       </c>
       <c r="R16" t="n">
         <v>131.7166010327126</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I17" t="n">
         <v>191.1372470591394</v>
@@ -28618,19 +28618,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="18">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>124.8122812139827</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>222.9213674675273</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28740,10 +28740,10 @@
         <v>160.2266402957612</v>
       </c>
       <c r="I19" t="n">
-        <v>45.70202670251808</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,22 +28767,22 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R19" t="n">
-        <v>167.1761804170862</v>
+        <v>167.1761804170863</v>
       </c>
       <c r="S19" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957488</v>
       </c>
       <c r="T19" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28889,16 +28889,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6433667609296</v>
+        <v>44.43104396524322</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>36.04191898511681</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.71972573095577</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R22" t="n">
-        <v>167.1761804170862</v>
+        <v>166.5752761905909</v>
       </c>
       <c r="S22" t="n">
         <v>220.0953094380075</v>
@@ -29086,7 +29086,7 @@
         <v>118.359332514826</v>
       </c>
       <c r="S23" t="n">
-        <v>197.5894408014587</v>
+        <v>197.5894408014571</v>
       </c>
       <c r="T23" t="n">
         <v>220.9000151151833</v>
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29129,10 +29129,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>80.15602968011626</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6979539789397</v>
+        <v>133.8717814331685</v>
       </c>
       <c r="T24" t="n">
         <v>199.0829306929842</v>
@@ -29174,7 +29174,7 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>209.0034601861953</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29205,7 +29205,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.7659706229939</v>
@@ -29241,7 +29241,7 @@
         <v>67.32062995745123</v>
       </c>
       <c r="R25" t="n">
-        <v>167.1761804170862</v>
+        <v>132.1643440315849</v>
       </c>
       <c r="S25" t="n">
         <v>220.0953094380075</v>
@@ -29250,7 +29250,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>236.7785849996226</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V25" t="n">
         <v>237.379489226118</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="C26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="D26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="E26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="F26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="G26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="H26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="I26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="J26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="K26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="L26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="M26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="N26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="O26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="P26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784501</v>
       </c>
       <c r="R26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="S26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="V26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="W26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="X26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Y26" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
     </row>
     <row r="27">
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29399,16 +29399,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>2.087667871785357</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T27" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>66.03859081153976</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29430,34 +29430,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="C28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>150.044060278452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="H28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="I28" t="n">
         <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>18.83099793136357</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29466,40 +29466,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="P28" t="n">
-        <v>97.94433062048283</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.32062995745123</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="R28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="S28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="V28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="W28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="X28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="C29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="D29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="E29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="F29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="G29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="H29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="I29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="J29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="K29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="L29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="M29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="N29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="O29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="P29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="R29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="S29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="V29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="W29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="X29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Y29" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
     </row>
     <row r="30">
@@ -29594,22 +29594,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0751276698277</v>
+        <v>58.04450608798356</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.84300403437901</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T30" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="C31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>150.044060278452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>150.044060278452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="H31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="I31" t="n">
-        <v>150.044060278452</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J31" t="n">
-        <v>77.45106251930778</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="K31" t="n">
-        <v>81.83067411629528</v>
+        <v>101.5544282523645</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="N31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="S31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="T31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="U31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="V31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="W31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="X31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784521</v>
       </c>
     </row>
     <row r="32">
@@ -29782,10 +29782,10 @@
         <v>150.044060278452</v>
       </c>
       <c r="N32" t="n">
-        <v>150.0440602784524</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784531</v>
       </c>
       <c r="P32" t="n">
         <v>150.044060278452</v>
@@ -29834,13 +29834,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0751276698277</v>
+        <v>53.06965820291551</v>
       </c>
       <c r="H33" t="n">
         <v>109.6433667609296</v>
@@ -29882,7 +29882,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="U33" t="n">
-        <v>66.03859081153976</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29925,31 +29925,31 @@
         <v>150.044060278452</v>
       </c>
       <c r="I34" t="n">
+        <v>148.6838485916426</v>
+      </c>
+      <c r="J34" t="n">
+        <v>77.45106251930778</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="J34" t="n">
+      <c r="M34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
       <c r="N34" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="P34" t="n">
-        <v>17.47078624455559</v>
+        <v>24.10336573305842</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -30068,22 +30068,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>65.69790792152591</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,16 +30116,16 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0829306929842</v>
+        <v>183.8507573432189</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>237.379489226118</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R37" t="n">
         <v>167.1761804170862</v>
@@ -30195,7 +30195,7 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T37" t="n">
-        <v>113.8719340166777</v>
+        <v>46.55130405922645</v>
       </c>
       <c r="U37" t="n">
         <v>237.379489226118</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0751276698277</v>
@@ -30320,7 +30320,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.259247010035594</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
         <v>166.6979539789397</v>
@@ -30356,13 +30356,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>175.2858037297545</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -30432,7 +30432,7 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T40" t="n">
-        <v>46.55130405922648</v>
+        <v>46.5513040592262</v>
       </c>
       <c r="U40" t="n">
         <v>237.379489226118</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="C41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="D41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="E41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="F41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="H41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="I41" t="n">
-        <v>191.1372470591394</v>
+        <v>220.900015115182</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>46.15486527702996</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>99.22820764677579</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="S41" t="n">
-        <v>197.5894408014587</v>
+        <v>220.900015115182</v>
       </c>
       <c r="T41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="U41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="V41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="W41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="X41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
     </row>
     <row r="42">
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>64.46499674412738</v>
+        <v>192.2648736707849</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -30639,7 +30639,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J43" t="n">
-        <v>77.45106251930778</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,22 +30666,22 @@
         <v>167.1761804170862</v>
       </c>
       <c r="S43" t="n">
-        <v>99.99466098870832</v>
+        <v>177.445723508023</v>
       </c>
       <c r="T43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="U43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="X43" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="C44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="D44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="E44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="F44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="H44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="I44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,10 +30727,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>46.1548652770287</v>
       </c>
       <c r="N44" t="n">
-        <v>46.15486527700705</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="S44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="T44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="U44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="V44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="W44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="X44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
     </row>
     <row r="45">
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>166.6979539789397</v>
@@ -30830,16 +30830,16 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>16.27348061726002</v>
+        <v>220.900015115182</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>111.2257953885948</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>59.73133173264496</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -30906,22 +30906,22 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="U46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="V46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="W46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="X46" t="n">
-        <v>220.9000151151833</v>
+        <v>220.900015115182</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.48400490279562</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H11" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I11" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M11" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N11" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
@@ -31792,7 +31792,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H12" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J12" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N12" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q12" t="n">
         <v>34.25968340095294</v>
@@ -31865,7 +31865,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H13" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J13" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K13" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N13" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P13" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q13" t="n">
         <v>18.84141329424315</v>
@@ -31944,13 +31944,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T13" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H14" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I14" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M14" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N14" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
@@ -32029,7 +32029,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H15" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J15" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N15" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q15" t="n">
         <v>34.25968340095294</v>
@@ -32102,7 +32102,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H16" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J16" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K16" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N16" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P16" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q16" t="n">
         <v>18.84141329424315</v>
@@ -32181,13 +32181,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T16" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H17" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I17" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M17" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N17" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P17" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
@@ -32266,7 +32266,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H18" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J18" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N18" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q18" t="n">
         <v>34.25968340095294</v>
@@ -32339,7 +32339,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H19" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J19" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K19" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N19" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P19" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84141329424315</v>
@@ -32418,13 +32418,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T19" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H20" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I20" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881182</v>
+        <v>63.8077387288118</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M20" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603007</v>
       </c>
       <c r="N20" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749703</v>
       </c>
       <c r="P20" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483464</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
@@ -32503,7 +32503,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634897</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H21" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566876</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J21" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018441</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935443</v>
+        <v>68.0037764593544</v>
       </c>
       <c r="N21" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782757</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q21" t="n">
         <v>34.25968340095294</v>
       </c>
       <c r="R21" t="n">
-        <v>16.66369152775873</v>
+        <v>16.66369152775872</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T21" t="n">
-        <v>1.081798001837402</v>
+        <v>1.081798001837401</v>
       </c>
       <c r="U21" t="n">
         <v>0.01765720351203595</v>
@@ -32619,34 +32619,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H22" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678407</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615715</v>
       </c>
       <c r="J22" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K22" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109483</v>
       </c>
       <c r="N22" t="n">
-        <v>34.43247312799861</v>
+        <v>34.4324731279986</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P22" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q22" t="n">
         <v>18.84141329424315</v>
@@ -32655,13 +32655,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T22" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225467</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H23" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I23" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M23" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N23" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P23" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
@@ -32740,7 +32740,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H24" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J24" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K24" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N24" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q24" t="n">
         <v>34.25968340095294</v>
@@ -32813,7 +32813,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
@@ -32856,34 +32856,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H25" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J25" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K25" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N25" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P25" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q25" t="n">
         <v>18.84141329424315</v>
@@ -32892,13 +32892,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T25" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293624</v>
       </c>
       <c r="H26" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944958</v>
       </c>
       <c r="I26" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529489</v>
+        <v>42.57423279529488</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930717</v>
       </c>
       <c r="M26" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603009</v>
       </c>
       <c r="N26" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203777</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749704</v>
       </c>
       <c r="P26" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882059</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632371</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
@@ -32977,7 +32977,7 @@
         <v>2.195834448948035</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.04012947022634898</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H27" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298813</v>
+        <v>9.24060317129881</v>
       </c>
       <c r="J27" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K27" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422262</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N27" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068128</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782758</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713472</v>
       </c>
       <c r="Q27" t="n">
         <v>34.25968340095294</v>
@@ -33050,7 +33050,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898144</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
@@ -33093,34 +33093,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2250087354648515</v>
+        <v>0.2250087354648514</v>
       </c>
       <c r="H28" t="n">
         <v>2.000532211678408</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J28" t="n">
-        <v>15.908117597365</v>
+        <v>15.90811759736499</v>
       </c>
       <c r="K28" t="n">
         <v>26.14192399309819</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174709</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109484</v>
       </c>
       <c r="N28" t="n">
         <v>34.43247312799861</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097737</v>
       </c>
       <c r="P28" t="n">
-        <v>27.21378378749439</v>
+        <v>27.21378378749438</v>
       </c>
       <c r="Q28" t="n">
         <v>18.84141329424315</v>
@@ -33129,13 +33129,13 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964727</v>
       </c>
       <c r="T28" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225468</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01227320375262828</v>
+        <v>0.01227320375262827</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,31 +33175,31 @@
         <v>0.5016183778293625</v>
       </c>
       <c r="H29" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944959</v>
       </c>
       <c r="I29" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J29" t="n">
         <v>42.57423279529489</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930718</v>
       </c>
       <c r="M29" t="n">
         <v>88.0797979860301</v>
       </c>
       <c r="N29" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203778</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749706</v>
       </c>
       <c r="P29" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q29" t="n">
         <v>54.1691415988206</v>
@@ -33251,25 +33251,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H30" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298812</v>
       </c>
       <c r="J30" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K30" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422263</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N30" t="n">
         <v>69.8036340706813</v>
@@ -33278,7 +33278,7 @@
         <v>63.85668792782759</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713473</v>
       </c>
       <c r="Q30" t="n">
         <v>34.25968340095294</v>
@@ -33287,7 +33287,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898145</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
@@ -33336,7 +33336,7 @@
         <v>2.000532211678408</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J31" t="n">
         <v>15.908117597365</v>
@@ -33345,7 +33345,7 @@
         <v>26.14192399309819</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174711</v>
+        <v>33.4526623617471</v>
       </c>
       <c r="M31" t="n">
         <v>35.27114205109485</v>
@@ -33369,7 +33369,7 @@
         <v>3.921288598964728</v>
       </c>
       <c r="T31" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225469</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262828</v>
@@ -33412,31 +33412,31 @@
         <v>0.5016183778293625</v>
       </c>
       <c r="H32" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944959</v>
       </c>
       <c r="I32" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J32" t="n">
         <v>42.57423279529489</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930718</v>
       </c>
       <c r="M32" t="n">
         <v>88.0797979860301</v>
       </c>
       <c r="N32" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203778</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749706</v>
       </c>
       <c r="P32" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q32" t="n">
         <v>54.1691415988206</v>
@@ -33488,25 +33488,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H33" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298812</v>
       </c>
       <c r="J33" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K33" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422263</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N33" t="n">
         <v>69.8036340706813</v>
@@ -33515,7 +33515,7 @@
         <v>63.85668792782759</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713473</v>
       </c>
       <c r="Q33" t="n">
         <v>34.25968340095294</v>
@@ -33524,7 +33524,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898145</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
@@ -33573,7 +33573,7 @@
         <v>2.000532211678408</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J34" t="n">
         <v>15.908117597365</v>
@@ -33582,7 +33582,7 @@
         <v>26.14192399309819</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174711</v>
+        <v>33.4526623617471</v>
       </c>
       <c r="M34" t="n">
         <v>35.27114205109485</v>
@@ -33606,7 +33606,7 @@
         <v>3.921288598964728</v>
       </c>
       <c r="T34" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225469</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262828</v>
@@ -33886,31 +33886,31 @@
         <v>0.5016183778293625</v>
       </c>
       <c r="H38" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944959</v>
       </c>
       <c r="I38" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J38" t="n">
         <v>42.57423279529489</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930718</v>
       </c>
       <c r="M38" t="n">
         <v>88.0797979860301</v>
       </c>
       <c r="N38" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203778</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749706</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q38" t="n">
         <v>54.1691415988206</v>
@@ -33962,25 +33962,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H39" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298812</v>
       </c>
       <c r="J39" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K39" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422263</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N39" t="n">
         <v>69.8036340706813</v>
@@ -33989,7 +33989,7 @@
         <v>63.85668792782759</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713473</v>
       </c>
       <c r="Q39" t="n">
         <v>34.25968340095294</v>
@@ -33998,7 +33998,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898145</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
@@ -34047,7 +34047,7 @@
         <v>2.000532211678408</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J40" t="n">
         <v>15.908117597365</v>
@@ -34056,7 +34056,7 @@
         <v>26.14192399309819</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174711</v>
+        <v>33.4526623617471</v>
       </c>
       <c r="M40" t="n">
         <v>35.27114205109485</v>
@@ -34080,7 +34080,7 @@
         <v>3.921288598964728</v>
       </c>
       <c r="T40" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225469</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34123,31 +34123,31 @@
         <v>0.5016183778293625</v>
       </c>
       <c r="H41" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944959</v>
       </c>
       <c r="I41" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J41" t="n">
         <v>42.57423279529489</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930718</v>
       </c>
       <c r="M41" t="n">
         <v>88.0797979860301</v>
       </c>
       <c r="N41" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203778</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749706</v>
       </c>
       <c r="P41" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q41" t="n">
         <v>54.1691415988206</v>
@@ -34199,25 +34199,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H42" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298812</v>
       </c>
       <c r="J42" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K42" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422263</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N42" t="n">
         <v>69.8036340706813</v>
@@ -34226,7 +34226,7 @@
         <v>63.85668792782759</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713473</v>
       </c>
       <c r="Q42" t="n">
         <v>34.25968340095294</v>
@@ -34235,7 +34235,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898145</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
@@ -34284,7 +34284,7 @@
         <v>2.000532211678408</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J43" t="n">
         <v>15.908117597365</v>
@@ -34293,7 +34293,7 @@
         <v>26.14192399309819</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174711</v>
+        <v>33.4526623617471</v>
       </c>
       <c r="M43" t="n">
         <v>35.27114205109485</v>
@@ -34317,7 +34317,7 @@
         <v>3.921288598964728</v>
       </c>
       <c r="T43" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225469</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262828</v>
@@ -34360,31 +34360,31 @@
         <v>0.5016183778293625</v>
       </c>
       <c r="H44" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944959</v>
       </c>
       <c r="I44" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126651</v>
       </c>
       <c r="J44" t="n">
         <v>42.57423279529489</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881181</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930718</v>
       </c>
       <c r="M44" t="n">
         <v>88.0797979860301</v>
       </c>
       <c r="N44" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203778</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749706</v>
       </c>
       <c r="P44" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483465</v>
       </c>
       <c r="Q44" t="n">
         <v>54.1691415988206</v>
@@ -34436,25 +34436,25 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2683894933829464</v>
+        <v>0.2683894933829463</v>
       </c>
       <c r="H45" t="n">
         <v>2.592077475566877</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298812</v>
       </c>
       <c r="J45" t="n">
-        <v>25.35692139018443</v>
+        <v>25.35692139018442</v>
       </c>
       <c r="K45" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684182</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422263</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935441</v>
       </c>
       <c r="N45" t="n">
         <v>69.8036340706813</v>
@@ -34463,7 +34463,7 @@
         <v>63.85668792782759</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713473</v>
       </c>
       <c r="Q45" t="n">
         <v>34.25968340095294</v>
@@ -34472,7 +34472,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898145</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
@@ -34521,7 +34521,7 @@
         <v>2.000532211678408</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615716</v>
       </c>
       <c r="J46" t="n">
         <v>15.908117597365</v>
@@ -34530,7 +34530,7 @@
         <v>26.14192399309819</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174711</v>
+        <v>33.4526623617471</v>
       </c>
       <c r="M46" t="n">
         <v>35.27114205109485</v>
@@ -34554,7 +34554,7 @@
         <v>3.921288598964728</v>
       </c>
       <c r="T46" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225469</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262828</v>
@@ -35416,10 +35416,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M11" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N11" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O11" t="n">
         <v>235.2190232985557</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.61033006392657</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>380.4238384241749</v>
+        <v>155.5129594188052</v>
       </c>
       <c r="N12" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P12" t="n">
-        <v>10.82810398737191</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q12" t="n">
         <v>104.3551970507805</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340481</v>
+        <v>54.26553851340483</v>
       </c>
       <c r="K13" t="n">
-        <v>3.87243216721534</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L13" t="n">
         <v>192.7592886547758</v>
       </c>
       <c r="M13" t="n">
-        <v>206.571620045648</v>
+        <v>74.85501901293543</v>
       </c>
       <c r="N13" t="n">
-        <v>210.2812465399398</v>
+        <v>195.2198746191357</v>
       </c>
       <c r="O13" t="n">
-        <v>188.1056909377296</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P13" t="n">
         <v>156.2089440851005</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.33459915445764</v>
+        <v>64.39597107526139</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M14" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N14" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O14" t="n">
         <v>235.2190232985557</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L15" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1232894827319</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N15" t="n">
-        <v>380.4238384241749</v>
+        <v>221.2891269264853</v>
       </c>
       <c r="O15" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P15" t="n">
-        <v>235.7389829927417</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>104.3551970507805</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340478</v>
+        <v>54.26553851340483</v>
       </c>
       <c r="K16" t="n">
         <v>135.5890331999279</v>
@@ -35814,16 +35814,16 @@
         <v>206.571620045648</v>
       </c>
       <c r="N16" t="n">
-        <v>210.2812465399398</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377296</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P16" t="n">
-        <v>24.49234305238788</v>
+        <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.33459915445833</v>
+        <v>49.33459915445718</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068245</v>
+        <v>30.62494344068237</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
@@ -35890,10 +35890,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M17" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N17" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O17" t="n">
         <v>235.2190232985557</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>90.2600739063646</v>
+        <v>90.26007390636448</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N18" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M19" t="n">
         <v>74.85501901293543</v>
@@ -36054,10 +36054,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O19" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P19" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068236</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36127,19 +36127,19 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M20" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N20" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O20" t="n">
         <v>235.2190232985557</v>
       </c>
       <c r="P20" t="n">
-        <v>162.6990621710478</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427578</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>90.2600739063646</v>
+        <v>90.26007390636448</v>
       </c>
       <c r="M21" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O21" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
-        <v>235.7389829927417</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q21" t="n">
         <v>104.3551970507805</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M22" t="n">
         <v>74.85501901293543</v>
@@ -36291,10 +36291,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O22" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P22" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M23" t="n">
-        <v>307.2470982515899</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N23" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O23" t="n">
         <v>235.2190232985557</v>
@@ -36376,13 +36376,13 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427591</v>
+        <v>44.17844238427579</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-1.607692654649116e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.61033006392657</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>290.5606228478076</v>
+        <v>194.6152709571449</v>
       </c>
       <c r="M24" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O24" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P24" t="n">
-        <v>221.2891269264855</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215333</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M25" t="n">
         <v>74.85501901293543</v>
@@ -36528,10 +36528,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O25" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501704</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>180.6690037191344</v>
       </c>
       <c r="K26" t="n">
-        <v>317.907360533448</v>
+        <v>317.9073605334481</v>
       </c>
       <c r="L26" t="n">
-        <v>411.0980020182224</v>
+        <v>411.0980020182225</v>
       </c>
       <c r="M26" t="n">
         <v>457.2911585300419</v>
       </c>
       <c r="N26" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958831</v>
       </c>
       <c r="O26" t="n">
         <v>385.2630835770077</v>
@@ -36613,10 +36613,10 @@
         <v>312.7431224494998</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.2225026627278</v>
+        <v>194.2225026627259</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362605</v>
+        <v>31.6847277636261</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.61033006392657</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K27" t="n">
         <v>169.9628154850614</v>
@@ -36735,7 +36735,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.610097631882837</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.59299775914423</v>
+        <v>72.59299775914428</v>
       </c>
       <c r="K28" t="n">
-        <v>3.87243216721534</v>
+        <v>22.7034300985789</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206323</v>
       </c>
       <c r="M28" t="n">
         <v>74.85501901293543</v>
       </c>
       <c r="N28" t="n">
-        <v>228.6087057856792</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O28" t="n">
         <v>206.4331501834691</v>
       </c>
       <c r="P28" t="n">
-        <v>122.4366736728707</v>
+        <v>174.5364033308399</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.72343032100083</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>317.9073605334481</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0980020182224</v>
+        <v>411.0980020182225</v>
       </c>
       <c r="M29" t="n">
         <v>457.2911585300419</v>
       </c>
       <c r="N29" t="n">
-        <v>447.4829422958831</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770078</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P29" t="n">
         <v>312.7431224494998</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.2225026627278</v>
+        <v>194.2225026627279</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362607</v>
+        <v>31.6847277636261</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.61033006392657</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K30" t="n">
         <v>169.9628154850614</v>
@@ -36972,10 +36972,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.610097631882866</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4.623012255520791</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809469</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.59299775914428</v>
       </c>
       <c r="K31" t="n">
-        <v>85.70310628351062</v>
+        <v>105.4268604195798</v>
       </c>
       <c r="L31" t="n">
-        <v>61.04268762206325</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M31" t="n">
-        <v>74.85501901293543</v>
+        <v>224.8990792913875</v>
       </c>
       <c r="N31" t="n">
-        <v>228.6087057856792</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O31" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501705</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5364033308399</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.72343032100081</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191343</v>
       </c>
       <c r="K32" t="n">
         <v>317.907360533448</v>
@@ -37075,22 +37075,22 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M32" t="n">
-        <v>457.2911585300419</v>
+        <v>457.2911585300418</v>
       </c>
       <c r="N32" t="n">
-        <v>447.4829422958834</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770076</v>
+        <v>385.2630835770088</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224494997</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.2225026627278</v>
+        <v>194.2225026627277</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362602</v>
+        <v>31.68472776362599</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.61033006392657</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K33" t="n">
         <v>169.9628154850614</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.360211686809413</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.5929977591442</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215337</v>
       </c>
       <c r="L34" t="n">
-        <v>61.04268762206325</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M34" t="n">
-        <v>74.85501901293543</v>
+        <v>224.8990792913874</v>
       </c>
       <c r="N34" t="n">
-        <v>228.6087057856792</v>
+        <v>78.5646455072272</v>
       </c>
       <c r="O34" t="n">
         <v>206.433150183469</v>
       </c>
       <c r="P34" t="n">
-        <v>41.96312929694347</v>
+        <v>48.5957087854463</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100075</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M36" t="n">
-        <v>380.4238384241748</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>380.4238384241748</v>
+        <v>365.9739823579186</v>
       </c>
       <c r="O36" t="n">
-        <v>260.3432483132034</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>307.2470982515899</v>
       </c>
       <c r="N38" t="n">
-        <v>297.4388820174311</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O38" t="n">
         <v>235.2190232985557</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>10.16047399767031</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
-        <v>380.4238384241751</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4238384241751</v>
+        <v>380.4238384241748</v>
       </c>
       <c r="O39" t="n">
-        <v>114.8222138186698</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P39" t="n">
         <v>235.7389829927417</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215337</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206324</v>
       </c>
       <c r="M40" t="n">
         <v>74.85501901293543</v>
@@ -37713,10 +37713,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O40" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501705</v>
       </c>
       <c r="P40" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.76276805604259</v>
       </c>
       <c r="J41" t="n">
         <v>30.62494344068237</v>
@@ -37789,7 +37789,7 @@
         <v>307.2470982515899</v>
       </c>
       <c r="N41" t="n">
-        <v>297.4388820174311</v>
+        <v>343.593747294461</v>
       </c>
       <c r="O41" t="n">
         <v>235.2190232985557</v>
@@ -37798,16 +37798,16 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q41" t="n">
-        <v>143.4066500310516</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003574</v>
+        <v>102.540682600356</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.31057431372325</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.334488075599438e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.61033006392656</v>
       </c>
       <c r="K42" t="n">
-        <v>57.2921125865827</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
         <v>290.5606228478076</v>
@@ -37871,13 +37871,13 @@
         <v>417.8042963309015</v>
       </c>
       <c r="O42" t="n">
-        <v>315.1227627601127</v>
+        <v>73.48653274694408</v>
       </c>
       <c r="P42" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215337</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206324</v>
       </c>
       <c r="M43" t="n">
         <v>74.85501901293543</v>
@@ -37950,10 +37950,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O43" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501705</v>
       </c>
       <c r="P43" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.76276805604393</v>
+        <v>29.76276805604259</v>
       </c>
       <c r="J44" t="n">
         <v>30.62494344068237</v>
@@ -38023,10 +38023,10 @@
         <v>261.0539417397704</v>
       </c>
       <c r="M44" t="n">
-        <v>307.2470982515899</v>
+        <v>353.4019635286186</v>
       </c>
       <c r="N44" t="n">
-        <v>343.5937472944381</v>
+        <v>297.438882017431</v>
       </c>
       <c r="O44" t="n">
         <v>235.2190232985557</v>
@@ -38038,13 +38038,13 @@
         <v>44.1784423842758</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5406826003574</v>
+        <v>102.540682600356</v>
       </c>
       <c r="S44" t="n">
-        <v>23.31057431372459</v>
+        <v>23.31057431372325</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-1.335820343228988e-12</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.61033006392657</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>32.68178252265614</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>290.5606228478076</v>
@@ -38108,13 +38108,13 @@
         <v>417.8042963309015</v>
       </c>
       <c r="O45" t="n">
-        <v>315.1227627601127</v>
+        <v>268.0596782959323</v>
       </c>
       <c r="P45" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215337</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206324</v>
       </c>
       <c r="M46" t="n">
         <v>74.85501901293543</v>
@@ -38187,10 +38187,10 @@
         <v>78.5646455072272</v>
       </c>
       <c r="O46" t="n">
-        <v>56.38908990501706</v>
+        <v>56.38908990501705</v>
       </c>
       <c r="P46" t="n">
-        <v>24.49234305238788</v>
+        <v>24.49234305238787</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
